--- a/ENMASCARARDATOS.xlsx
+++ b/ENMASCARARDATOS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zona Trabajo\SQL\Enmascarar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4DEC91-EA28-413B-B9CC-88CE0702EA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENMASCARARDATOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENMASCARARDATOS!$A$1:$G$394</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENMASCARARDATOS!$A$1:$G$396</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="280">
   <si>
     <t>OWNER</t>
   </si>
@@ -861,12 +862,18 @@
   </si>
   <si>
     <t>PRIORIDAD</t>
+  </si>
+  <si>
+    <t>DIRECCIONBENEFICIARIO</t>
+  </si>
+  <si>
+    <t>TELEFONOBENEFICIARIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1208,8 +1215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G394"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1626,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -1672,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -1732,22 +1739,22 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1755,13 +1762,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>259</v>
@@ -1770,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,13 +1785,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>259</v>
@@ -1793,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,22 +1808,22 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1824,13 +1831,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>259</v>
@@ -1839,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1847,16 +1854,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -1873,10 +1880,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>259</v>
@@ -1885,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,10 +1903,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>259</v>
@@ -1908,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,10 +1926,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>259</v>
@@ -1931,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1939,22 +1946,22 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,22 +1969,22 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,13 +1992,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>259</v>
@@ -2000,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2008,16 +2015,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
@@ -2031,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>16</v>
@@ -2054,13 +2061,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>259</v>
@@ -2069,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2077,13 +2084,13 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>259</v>
@@ -2092,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2100,13 +2107,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>259</v>
@@ -2115,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2126,19 +2133,19 @@
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F40" s="6">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2149,10 +2156,10 @@
         <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>259</v>
@@ -2161,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2172,10 +2179,10 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>259</v>
@@ -2184,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2192,10 +2199,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>16</v>
@@ -2215,10 +2222,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>16</v>
@@ -2241,7 +2248,7 @@
         <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>16</v>
@@ -2264,10 +2271,10 @@
         <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>259</v>
@@ -2276,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2284,13 +2291,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>259</v>
@@ -2299,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2307,13 +2314,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>259</v>
@@ -2322,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2333,10 +2340,10 @@
         <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>259</v>
@@ -2345,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2353,13 +2360,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>259</v>
@@ -2368,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2376,22 +2383,22 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2399,10 +2406,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>13</v>
@@ -2422,13 +2429,13 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>259</v>
@@ -2437,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2445,13 +2452,13 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>259</v>
@@ -2460,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2471,10 +2478,10 @@
         <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>259</v>
@@ -2483,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2494,19 +2501,19 @@
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2514,13 +2521,13 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>259</v>
@@ -2529,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2537,13 +2544,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>259</v>
@@ -2552,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,22 +2567,22 @@
         <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2586,19 +2593,19 @@
         <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F60" s="6">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2609,10 +2616,10 @@
         <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>259</v>
@@ -2621,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2629,13 +2636,13 @@
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>259</v>
@@ -2644,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2652,10 +2659,10 @@
         <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>16</v>
@@ -2678,7 +2685,7 @@
         <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>16</v>
@@ -2701,10 +2708,10 @@
         <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>259</v>
@@ -2713,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2724,7 +2731,7 @@
         <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>16</v>
@@ -2747,7 +2754,7 @@
         <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>13</v>
@@ -2767,10 +2774,10 @@
         <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>16</v>
@@ -2790,22 +2797,22 @@
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F69" s="6">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,22 +2820,22 @@
         <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F70" s="6">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2836,13 +2843,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>259</v>
@@ -2851,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2859,7 +2866,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>20</v>
@@ -2868,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F72" s="6">
         <v>0</v>
@@ -2882,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
@@ -2905,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>20</v>
@@ -2914,7 +2921,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F74" s="6">
         <v>0</v>
@@ -2928,13 +2935,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>259</v>
@@ -2943,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,13 +2958,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>259</v>
@@ -2966,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,13 +2981,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>259</v>
@@ -2989,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2997,10 +3004,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>16</v>
@@ -3020,13 +3027,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>259</v>
@@ -3035,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3043,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>31</v>
@@ -3066,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>48</v>
@@ -3089,13 +3096,13 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>259</v>
@@ -3104,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3112,22 +3119,22 @@
         <v>6</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F83" s="6">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,13 +3142,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>259</v>
@@ -3150,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3158,13 +3165,13 @@
         <v>6</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>259</v>
@@ -3173,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,13 +3188,13 @@
         <v>6</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>259</v>
@@ -3196,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,8 +3213,8 @@
       <c r="B87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>162</v>
+      <c r="C87" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>11</v>
@@ -3227,13 +3234,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>259</v>
@@ -3242,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,13 +3257,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>259</v>
@@ -3265,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3273,22 +3280,22 @@
         <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F90" s="6">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,7 +3306,7 @@
         <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>16</v>
@@ -3322,10 +3329,10 @@
         <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>259</v>
@@ -3334,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,13 +3349,13 @@
         <v>6</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>259</v>
@@ -3357,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3365,13 +3372,13 @@
         <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>259</v>
@@ -3380,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,13 +3395,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>259</v>
@@ -3403,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3411,13 +3418,13 @@
         <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>259</v>
@@ -3426,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3434,22 +3441,22 @@
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F97" s="6">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3457,13 +3464,13 @@
         <v>6</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>259</v>
@@ -3472,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3483,10 +3490,10 @@
         <v>103</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>259</v>
@@ -3495,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,9 +3513,9 @@
         <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -3526,22 +3533,22 @@
         <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F101" s="6">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,12 +3556,12 @@
         <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -3575,10 +3582,10 @@
         <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>259</v>
@@ -3587,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3595,22 +3602,22 @@
         <v>6</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F104" s="6">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3618,22 +3625,22 @@
         <v>6</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F105" s="6">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3641,13 +3648,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>259</v>
@@ -3656,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3667,13 +3674,13 @@
         <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F107" s="6">
         <v>0</v>
@@ -3690,7 +3697,7 @@
         <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>16</v>
@@ -3710,16 +3717,16 @@
         <v>6</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F109" s="6">
         <v>0</v>
@@ -3733,10 +3740,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>16</v>
@@ -3759,13 +3766,13 @@
         <v>94</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F111" s="6">
         <v>0</v>
@@ -3782,7 +3789,7 @@
         <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>16</v>
@@ -3802,16 +3809,16 @@
         <v>6</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F113" s="6">
         <v>0</v>
@@ -3825,13 +3832,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>259</v>
@@ -3840,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,10 +3858,10 @@
         <v>95</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>259</v>
@@ -3863,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,13 +3878,13 @@
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>259</v>
@@ -3886,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3894,10 +3901,10 @@
         <v>6</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>16</v>
@@ -3920,7 +3927,7 @@
         <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>16</v>
@@ -3943,7 +3950,7 @@
         <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>16</v>
@@ -3966,7 +3973,7 @@
         <v>98</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>16</v>
@@ -3989,19 +3996,19 @@
         <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F121" s="6">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4012,10 +4019,10 @@
         <v>98</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>259</v>
@@ -4024,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4035,10 +4042,10 @@
         <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>259</v>
@@ -4047,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4055,13 +4062,13 @@
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>259</v>
@@ -4070,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4078,13 +4085,13 @@
         <v>6</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>259</v>
@@ -4093,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4104,7 +4111,7 @@
         <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>16</v>
@@ -4127,7 +4134,7 @@
         <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>16</v>
@@ -4150,7 +4157,7 @@
         <v>102</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>16</v>
@@ -4173,19 +4180,19 @@
         <v>102</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F129" s="6">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4196,10 +4203,10 @@
         <v>102</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>259</v>
@@ -4208,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4219,10 +4226,10 @@
         <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>259</v>
@@ -4231,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4239,22 +4246,22 @@
         <v>6</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F132" s="6">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>262</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4262,13 +4269,13 @@
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>259</v>
@@ -4277,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,22 +4292,22 @@
         <v>6</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>13</v>
+        <v>105</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F134" s="6">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4311,7 +4318,7 @@
         <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>16</v>
@@ -4334,10 +4341,10 @@
         <v>106</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>259</v>
@@ -4346,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4357,7 +4364,7 @@
         <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>16</v>
@@ -4380,19 +4387,19 @@
         <v>106</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F138" s="6">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4400,22 +4407,22 @@
         <v>6</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F139" s="6">
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4423,13 +4430,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>259</v>
@@ -4438,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4446,7 +4453,7 @@
         <v>6</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>20</v>
@@ -4455,7 +4462,7 @@
         <v>20</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F141" s="6">
         <v>0</v>
@@ -4469,10 +4476,10 @@
         <v>6</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>16</v>
@@ -4492,13 +4499,13 @@
         <v>6</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>259</v>
@@ -4507,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4515,22 +4522,22 @@
         <v>6</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F144" s="6">
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4538,10 +4545,10 @@
         <v>6</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>16</v>
@@ -4561,13 +4568,13 @@
         <v>6</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>259</v>
@@ -4576,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4587,7 +4594,7 @@
         <v>110</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>16</v>
@@ -4610,10 +4617,10 @@
         <v>110</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>259</v>
@@ -4622,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4630,22 +4637,22 @@
         <v>6</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F149" s="6">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4653,13 +4660,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>259</v>
@@ -4668,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4676,13 +4683,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>259</v>
@@ -4691,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4699,10 +4706,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>16</v>
@@ -4722,22 +4729,22 @@
         <v>6</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F153" s="6">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4745,22 +4752,22 @@
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F154" s="6">
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4768,13 +4775,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>259</v>
@@ -4783,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4794,10 +4801,10 @@
         <v>116</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>259</v>
@@ -4806,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4814,10 +4821,10 @@
         <v>6</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>8</v>
@@ -4837,13 +4844,13 @@
         <v>6</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>259</v>
@@ -4852,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,13 +4867,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>259</v>
@@ -4875,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4886,10 +4893,10 @@
         <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>259</v>
@@ -4898,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4909,10 +4916,10 @@
         <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>259</v>
@@ -4921,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4932,10 +4939,10 @@
         <v>119</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>259</v>
@@ -4944,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4955,10 +4962,10 @@
         <v>119</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>259</v>
@@ -4967,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4975,10 +4982,10 @@
         <v>6</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>16</v>
@@ -4998,22 +5005,22 @@
         <v>6</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F165" s="6">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5021,22 +5028,22 @@
         <v>6</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F166" s="6">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5044,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>20</v>
@@ -5053,7 +5060,7 @@
         <v>20</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F167" s="6">
         <v>0</v>
@@ -5067,7 +5074,7 @@
         <v>6</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>20</v>
@@ -5076,7 +5083,7 @@
         <v>20</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F168" s="6">
         <v>0</v>
@@ -5090,13 +5097,13 @@
         <v>6</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>259</v>
@@ -5105,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5113,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>20</v>
@@ -5122,7 +5129,7 @@
         <v>20</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F170" s="6">
         <v>0</v>
@@ -5136,7 +5143,7 @@
         <v>6</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>125</v>
@@ -5159,7 +5166,7 @@
         <v>6</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>20</v>
@@ -5168,7 +5175,7 @@
         <v>20</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F172" s="6">
         <v>0</v>
@@ -5182,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>125</v>
@@ -5205,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
@@ -5214,7 +5221,7 @@
         <v>20</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F174" s="6">
         <v>0</v>
@@ -5228,7 +5235,7 @@
         <v>6</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>125</v>
@@ -5251,7 +5258,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>20</v>
@@ -5260,7 +5267,7 @@
         <v>20</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F176" s="6">
         <v>0</v>
@@ -5274,7 +5281,7 @@
         <v>6</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>125</v>
@@ -5297,7 +5304,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>20</v>
@@ -5306,7 +5313,7 @@
         <v>20</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F178" s="6">
         <v>0</v>
@@ -5320,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>125</v>
@@ -5343,7 +5350,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>20</v>
@@ -5352,7 +5359,7 @@
         <v>20</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F180" s="6">
         <v>0</v>
@@ -5366,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>125</v>
@@ -5389,16 +5396,16 @@
         <v>6</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F182" s="6">
         <v>0</v>
@@ -5412,12 +5419,12 @@
         <v>6</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E183" s="2" t="s">
@@ -5435,13 +5442,13 @@
         <v>6</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>259</v>
@@ -5450,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5458,22 +5465,22 @@
         <v>6</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F185" s="6">
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5481,22 +5488,22 @@
         <v>6</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F186" s="6">
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5504,13 +5511,13 @@
         <v>6</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>259</v>
@@ -5519,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5530,19 +5537,19 @@
         <v>136</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F188" s="6">
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5553,19 +5560,19 @@
         <v>136</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F189" s="6">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5576,10 +5583,10 @@
         <v>136</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>259</v>
@@ -5588,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,10 +5606,10 @@
         <v>136</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>259</v>
@@ -5611,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5619,13 +5626,13 @@
         <v>6</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>259</v>
@@ -5634,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5642,13 +5649,13 @@
         <v>6</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>259</v>
@@ -5657,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5668,10 +5675,10 @@
         <v>146</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>259</v>
@@ -5680,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,7 +5698,7 @@
         <v>146</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>16</v>
@@ -5711,13 +5718,13 @@
         <v>6</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>259</v>
@@ -5726,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5734,22 +5741,22 @@
         <v>6</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F197" s="6">
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5757,13 +5764,13 @@
         <v>6</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>259</v>
@@ -5772,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5780,13 +5787,13 @@
         <v>6</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>259</v>
@@ -5795,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5803,13 +5810,13 @@
         <v>6</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>16</v>
+        <v>139</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>259</v>
@@ -5818,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5826,13 +5833,13 @@
         <v>6</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>16</v>
+        <v>141</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>259</v>
@@ -5841,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5852,19 +5859,19 @@
         <v>142</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F202" s="6">
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5875,10 +5882,10 @@
         <v>142</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>259</v>
@@ -5887,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5898,10 +5905,10 @@
         <v>142</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>259</v>
@@ -5910,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5918,13 +5925,13 @@
         <v>6</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>259</v>
@@ -5933,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5941,13 +5948,13 @@
         <v>6</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>259</v>
@@ -5956,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5967,7 +5974,7 @@
         <v>143</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>16</v>
@@ -5990,10 +5997,10 @@
         <v>143</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>259</v>
@@ -6002,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6010,10 +6017,10 @@
         <v>6</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>16</v>
@@ -6033,13 +6040,13 @@
         <v>6</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>259</v>
@@ -6048,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6059,7 +6066,7 @@
         <v>144</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>16</v>
@@ -6082,10 +6089,10 @@
         <v>144</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>259</v>
@@ -6094,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6102,12 +6109,12 @@
         <v>6</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -6125,13 +6132,13 @@
         <v>6</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>259</v>
@@ -6140,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6148,10 +6155,10 @@
         <v>6</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>16</v>
@@ -6174,7 +6181,7 @@
         <v>147</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>16</v>
@@ -6194,22 +6201,22 @@
         <v>6</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F217" s="6">
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6217,10 +6224,10 @@
         <v>6</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>16</v>
@@ -6229,7 +6236,7 @@
         <v>259</v>
       </c>
       <c r="F218" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G218" t="s">
         <v>16</v>
@@ -6240,22 +6247,22 @@
         <v>6</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F219" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6266,10 +6273,10 @@
         <v>261</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>259</v>
@@ -6277,8 +6284,8 @@
       <c r="F220" s="6">
         <v>9</v>
       </c>
-      <c r="G220" s="2" t="s">
-        <v>14</v>
+      <c r="G220" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6286,22 +6293,22 @@
         <v>6</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F221" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G221" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -6309,22 +6316,22 @@
         <v>6</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F222" s="6">
-        <v>0</v>
-      </c>
-      <c r="G222" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6335,10 +6342,10 @@
         <v>154</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>259</v>
@@ -6347,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6358,10 +6365,10 @@
         <v>154</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>259</v>
@@ -6370,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6378,7 +6385,7 @@
         <v>6</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>153</v>
@@ -6401,10 +6408,10 @@
         <v>6</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>13</v>
@@ -6416,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6424,13 +6431,13 @@
         <v>6</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>259</v>
@@ -6439,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6450,10 +6457,10 @@
         <v>156</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>259</v>
@@ -6462,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6473,10 +6480,10 @@
         <v>156</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>259</v>
@@ -6485,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6493,22 +6500,22 @@
         <v>6</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F230" s="6">
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6516,13 +6523,13 @@
         <v>6</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>259</v>
@@ -6531,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6539,7 +6546,7 @@
         <v>6</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>20</v>
@@ -6548,7 +6555,7 @@
         <v>20</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F232" s="6">
         <v>0</v>
@@ -6562,7 +6569,7 @@
         <v>6</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>125</v>
@@ -6585,13 +6592,13 @@
         <v>6</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>259</v>
@@ -6600,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6608,13 +6615,13 @@
         <v>6</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>259</v>
@@ -6623,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6634,7 +6641,7 @@
         <v>159</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>11</v>
@@ -6654,22 +6661,22 @@
         <v>6</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F237" s="6">
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -6677,13 +6684,13 @@
         <v>6</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>259</v>
@@ -6692,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6700,16 +6707,16 @@
         <v>6</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F239" s="6">
         <v>0</v>
@@ -6723,10 +6730,10 @@
         <v>6</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>16</v>
@@ -6748,11 +6755,11 @@
       <c r="B241" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C241" t="s">
-        <v>166</v>
-      </c>
-      <c r="D241" t="s">
-        <v>16</v>
+      <c r="C241" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>259</v>
@@ -6761,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6769,10 +6776,10 @@
         <v>6</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>16</v>
@@ -6792,12 +6799,12 @@
         <v>6</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D243" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C243" t="s">
+        <v>166</v>
+      </c>
+      <c r="D243" t="s">
         <v>16</v>
       </c>
       <c r="E243" s="2" t="s">
@@ -6815,10 +6822,10 @@
         <v>6</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>16</v>
@@ -6838,10 +6845,10 @@
         <v>6</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>16</v>
@@ -6861,10 +6868,10 @@
         <v>6</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>16</v>
@@ -6884,7 +6891,7 @@
         <v>6</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>170</v>
@@ -6907,10 +6914,10 @@
         <v>6</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>16</v>
@@ -6930,13 +6937,13 @@
         <v>6</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>259</v>
@@ -6945,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6953,10 +6960,10 @@
         <v>6</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>16</v>
@@ -6976,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>13</v>
@@ -6999,10 +7006,10 @@
         <v>6</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>16</v>
@@ -7022,10 +7029,10 @@
         <v>6</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>13</v>
@@ -7045,10 +7052,10 @@
         <v>6</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>16</v>
@@ -7071,10 +7078,10 @@
         <v>178</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>259</v>
@@ -7083,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7094,7 +7101,7 @@
         <v>178</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>16</v>
@@ -7117,7 +7124,7 @@
         <v>178</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>16</v>
@@ -7140,7 +7147,7 @@
         <v>178</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>16</v>
@@ -7160,10 +7167,10 @@
         <v>6</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>16</v>
@@ -7183,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>46</v>
@@ -7209,7 +7216,7 @@
         <v>177</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>16</v>
@@ -7232,7 +7239,7 @@
         <v>177</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>16</v>
@@ -7255,10 +7262,10 @@
         <v>177</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>259</v>
@@ -7267,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7278,10 +7285,10 @@
         <v>177</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>259</v>
@@ -7290,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7301,7 +7308,7 @@
         <v>177</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>13</v>
@@ -7313,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7321,22 +7328,22 @@
         <v>6</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F266" s="6">
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7344,13 +7351,13 @@
         <v>6</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>259</v>
@@ -7359,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7367,13 +7374,13 @@
         <v>6</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>259</v>
@@ -7382,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7390,22 +7397,22 @@
         <v>6</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F269" s="6">
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7413,10 +7420,10 @@
         <v>6</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>16</v>
@@ -7436,13 +7443,13 @@
         <v>6</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>259</v>
@@ -7451,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7462,19 +7469,19 @@
         <v>181</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F272" s="6">
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7482,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>259</v>
@@ -7497,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7505,16 +7512,16 @@
         <v>6</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F274" s="6">
         <v>0</v>
@@ -7531,10 +7538,10 @@
         <v>184</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>259</v>
@@ -7543,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7551,13 +7558,13 @@
         <v>6</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>259</v>
@@ -7566,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7574,22 +7581,22 @@
         <v>6</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F277" s="6">
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7600,10 +7607,10 @@
         <v>186</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>259</v>
@@ -7612,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7623,10 +7630,10 @@
         <v>186</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>259</v>
@@ -7635,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7646,7 +7653,7 @@
         <v>186</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>16</v>
@@ -7669,7 +7676,7 @@
         <v>186</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>16</v>
@@ -7692,10 +7699,10 @@
         <v>186</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>259</v>
@@ -7704,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -7715,10 +7722,10 @@
         <v>186</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>259</v>
@@ -7727,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7738,10 +7745,10 @@
         <v>186</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>259</v>
@@ -7750,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7761,10 +7768,10 @@
         <v>186</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>259</v>
@@ -7773,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -7784,10 +7791,10 @@
         <v>186</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>259</v>
@@ -7796,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7807,7 +7814,7 @@
         <v>186</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>11</v>
@@ -7830,10 +7837,10 @@
         <v>186</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>259</v>
@@ -7842,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -7850,13 +7857,13 @@
         <v>6</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>259</v>
@@ -7865,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7873,22 +7880,22 @@
         <v>6</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F290" s="6">
         <v>0</v>
       </c>
       <c r="G290" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7896,22 +7903,22 @@
         <v>6</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F291" s="6">
         <v>0</v>
       </c>
       <c r="G291" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -7919,13 +7926,13 @@
         <v>6</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>259</v>
@@ -7934,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -7942,7 +7949,7 @@
         <v>6</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>20</v>
@@ -7951,7 +7958,7 @@
         <v>20</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F293" s="6">
         <v>0</v>
@@ -7965,10 +7972,10 @@
         <v>6</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>16</v>
@@ -7988,13 +7995,13 @@
         <v>6</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>259</v>
@@ -8003,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -8011,22 +8018,22 @@
         <v>6</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F296" s="6">
         <v>0</v>
       </c>
       <c r="G296" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -8034,7 +8041,7 @@
         <v>6</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>21</v>
@@ -8060,10 +8067,10 @@
         <v>201</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>259</v>
@@ -8072,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -8080,13 +8087,13 @@
         <v>6</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>259</v>
@@ -8095,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -8103,13 +8110,13 @@
         <v>6</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>259</v>
@@ -8118,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -8129,19 +8136,19 @@
         <v>202</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F301" s="6">
         <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -8149,13 +8156,13 @@
         <v>6</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>259</v>
@@ -8164,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -8172,16 +8179,16 @@
         <v>6</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F303" s="6">
         <v>0</v>
@@ -8195,13 +8202,13 @@
         <v>6</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>259</v>
@@ -8210,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -8221,10 +8228,10 @@
         <v>204</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>259</v>
@@ -8233,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -8241,10 +8248,10 @@
         <v>6</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>16</v>
@@ -8264,22 +8271,22 @@
         <v>6</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F307" s="6">
         <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -8290,10 +8297,10 @@
         <v>222</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>259</v>
@@ -8302,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -8313,10 +8320,10 @@
         <v>222</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>259</v>
@@ -8325,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -8336,10 +8343,10 @@
         <v>222</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>259</v>
@@ -8348,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -8356,13 +8363,13 @@
         <v>6</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>259</v>
@@ -8371,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -8379,22 +8386,22 @@
         <v>6</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F312" s="6">
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -8405,7 +8412,7 @@
         <v>205</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>16</v>
@@ -8428,10 +8435,10 @@
         <v>205</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>259</v>
@@ -8440,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -8451,10 +8458,10 @@
         <v>205</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>259</v>
@@ -8463,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -8471,10 +8478,10 @@
         <v>6</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>13</v>
@@ -8494,22 +8501,22 @@
         <v>6</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F317" s="6">
         <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -8520,10 +8527,10 @@
         <v>206</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>259</v>
@@ -8532,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -8543,10 +8550,10 @@
         <v>206</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>259</v>
@@ -8555,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -8566,10 +8573,10 @@
         <v>206</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>259</v>
@@ -8578,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -8586,22 +8593,22 @@
         <v>6</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F321" s="6">
         <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -8609,7 +8616,7 @@
         <v>6</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>209</v>
@@ -8632,13 +8639,13 @@
         <v>6</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>259</v>
@@ -8647,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -8655,22 +8662,22 @@
         <v>6</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F324" s="6">
         <v>0</v>
       </c>
       <c r="G324" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -8681,10 +8688,10 @@
         <v>211</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>259</v>
@@ -8693,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8701,16 +8708,16 @@
         <v>6</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F326" s="6">
         <v>0</v>
@@ -8724,22 +8731,22 @@
         <v>6</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F327" s="6">
         <v>0</v>
       </c>
       <c r="G327" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -8747,13 +8754,13 @@
         <v>6</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>259</v>
@@ -8762,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -8770,13 +8777,13 @@
         <v>6</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>259</v>
@@ -8785,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="G329" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -8793,13 +8800,13 @@
         <v>6</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>259</v>
@@ -8808,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -8819,19 +8826,19 @@
         <v>216</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F331" s="6">
         <v>0</v>
       </c>
       <c r="G331" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -8839,7 +8846,7 @@
         <v>6</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>182</v>
@@ -8862,7 +8869,7 @@
         <v>6</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>207</v>
@@ -8871,7 +8878,7 @@
         <v>20</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F333" s="6">
         <v>0</v>
@@ -8888,10 +8895,10 @@
         <v>217</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>259</v>
@@ -8900,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -8908,13 +8915,13 @@
         <v>6</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>259</v>
@@ -8923,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="G335" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -8931,10 +8938,10 @@
         <v>6</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>16</v>
@@ -8957,7 +8964,7 @@
         <v>218</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>16</v>
@@ -8980,19 +8987,19 @@
         <v>218</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F338" s="6">
         <v>0</v>
       </c>
       <c r="G338" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -9003,7 +9010,7 @@
         <v>218</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>16</v>
@@ -9026,10 +9033,10 @@
         <v>218</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>259</v>
@@ -9038,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -9049,7 +9056,7 @@
         <v>218</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>16</v>
@@ -9069,22 +9076,22 @@
         <v>6</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F342" s="6">
         <v>0</v>
       </c>
       <c r="G342" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -9092,10 +9099,10 @@
         <v>6</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>16</v>
@@ -9118,10 +9125,10 @@
         <v>220</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>259</v>
@@ -9130,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9138,10 +9145,10 @@
         <v>6</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>16</v>
@@ -9161,13 +9168,13 @@
         <v>6</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>259</v>
@@ -9176,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -9184,7 +9191,7 @@
         <v>6</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>224</v>
@@ -9207,7 +9214,7 @@
         <v>6</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>224</v>
@@ -9230,7 +9237,7 @@
         <v>6</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>224</v>
@@ -9253,22 +9260,22 @@
         <v>6</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F350" s="6">
         <v>0</v>
       </c>
       <c r="G350" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9276,22 +9283,22 @@
         <v>6</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F351" s="6">
         <v>0</v>
       </c>
       <c r="G351" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -9299,7 +9306,7 @@
         <v>6</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>229</v>
@@ -9308,7 +9315,7 @@
         <v>20</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F352" s="6">
         <v>0</v>
@@ -9322,13 +9329,13 @@
         <v>6</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>259</v>
@@ -9337,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -9345,7 +9352,7 @@
         <v>6</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>229</v>
@@ -9354,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F354" s="6">
         <v>0</v>
@@ -9368,22 +9375,22 @@
         <v>6</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F355" s="6">
         <v>0</v>
       </c>
       <c r="G355" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -9391,7 +9398,7 @@
         <v>6</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>229</v>
@@ -9400,7 +9407,7 @@
         <v>20</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F356" s="6">
         <v>0</v>
@@ -9414,13 +9421,13 @@
         <v>6</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>259</v>
@@ -9429,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -9437,13 +9444,13 @@
         <v>6</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>259</v>
@@ -9452,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -9463,19 +9470,19 @@
         <v>235</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F359" s="6">
         <v>0</v>
       </c>
       <c r="G359" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -9483,10 +9490,10 @@
         <v>6</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>16</v>
@@ -9506,7 +9513,7 @@
         <v>6</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>20</v>
@@ -9515,7 +9522,7 @@
         <v>20</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F361" s="6">
         <v>0</v>
@@ -9529,22 +9536,22 @@
         <v>6</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F362" s="6">
         <v>0</v>
       </c>
       <c r="G362" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -9552,13 +9559,13 @@
         <v>6</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>259</v>
@@ -9567,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="G363" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -9575,13 +9582,13 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>259</v>
@@ -9590,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="G364" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -9600,11 +9607,11 @@
       <c r="B365" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C365" t="s">
-        <v>239</v>
+      <c r="C365" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>259</v>
@@ -9613,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -9624,10 +9631,10 @@
         <v>238</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>259</v>
@@ -9636,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -9644,22 +9651,22 @@
         <v>6</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>20</v>
+        <v>238</v>
+      </c>
+      <c r="C367" t="s">
+        <v>239</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F367" s="6">
         <v>0</v>
       </c>
       <c r="G367" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -9667,13 +9674,13 @@
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>259</v>
@@ -9682,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -9690,13 +9697,13 @@
         <v>6</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>259</v>
@@ -9705,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="G369" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -9716,10 +9723,10 @@
         <v>241</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>259</v>
@@ -9728,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="G370" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -9739,7 +9746,7 @@
         <v>241</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>16</v>
@@ -9762,7 +9769,7 @@
         <v>241</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>16</v>
@@ -9782,22 +9789,22 @@
         <v>6</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F373" s="6">
         <v>0</v>
       </c>
       <c r="G373" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -9805,22 +9812,22 @@
         <v>6</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F374" s="6">
         <v>0</v>
       </c>
       <c r="G374" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -9828,13 +9835,13 @@
         <v>6</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>259</v>
@@ -9843,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -9851,13 +9858,13 @@
         <v>6</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>259</v>
@@ -9866,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -9874,13 +9881,13 @@
         <v>6</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>259</v>
@@ -9889,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -9897,13 +9904,13 @@
         <v>6</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>259</v>
@@ -9912,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -9920,22 +9927,22 @@
         <v>6</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F379" s="6">
         <v>0</v>
       </c>
       <c r="G379" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -9943,13 +9950,13 @@
         <v>6</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>259</v>
@@ -9958,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="G380" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -9966,13 +9973,13 @@
         <v>6</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>259</v>
@@ -9981,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="G381" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -9992,10 +9999,10 @@
         <v>246</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>247</v>
+        <v>58</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>259</v>
@@ -10004,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -10012,10 +10019,10 @@
         <v>6</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>16</v>
@@ -10035,10 +10042,10 @@
         <v>6</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>16</v>
@@ -10061,7 +10068,7 @@
         <v>248</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>16</v>
@@ -10084,7 +10091,7 @@
         <v>248</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>16</v>
@@ -10107,10 +10114,10 @@
         <v>248</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>259</v>
@@ -10119,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -10130,19 +10137,19 @@
         <v>248</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F388" s="6">
         <v>0</v>
       </c>
       <c r="G388" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -10153,10 +10160,10 @@
         <v>248</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>259</v>
@@ -10165,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -10176,10 +10183,10 @@
         <v>248</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>259</v>
@@ -10188,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -10199,10 +10206,10 @@
         <v>248</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>259</v>
@@ -10211,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -10219,22 +10226,22 @@
         <v>6</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F392" s="6">
         <v>0</v>
       </c>
       <c r="G392" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -10242,13 +10249,13 @@
         <v>6</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>259</v>
@@ -10257,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -10265,29 +10272,75 @@
         <v>6</v>
       </c>
       <c r="B394" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F394" s="6">
+        <v>0</v>
+      </c>
+      <c r="G394" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F395" s="6">
+        <v>0</v>
+      </c>
+      <c r="G395" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C396" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D394" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F394" s="6">
-        <v>0</v>
-      </c>
-      <c r="G394" t="s">
+      <c r="D396" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F396" s="6">
+        <v>0</v>
+      </c>
+      <c r="G396" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G394">
-    <sortState ref="A2:F394">
-      <sortCondition ref="A2:A394"/>
-      <sortCondition ref="B2:B394"/>
+  <autoFilter ref="A1:G396" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F396">
+      <sortCondition ref="A2:A396"/>
+      <sortCondition ref="B2:B396"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ENMASCARARDATOS.xlsx
+++ b/ENMASCARARDATOS.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zona Trabajo\SQL\Enmascarar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4DEC91-EA28-413B-B9CC-88CE0702EA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2975E2-F390-40A1-8CC2-DA4032BBFAFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ENMASCARARDATOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENMASCARARDATOS!$A$1:$G$396</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENMASCARARDATOS!$A$1:$G$402</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="282">
   <si>
     <t>OWNER</t>
   </si>
@@ -868,6 +868,12 @@
   </si>
   <si>
     <t>TELEFONOBENEFICIARIO</t>
+  </si>
+  <si>
+    <t>DIRECCION_20191231</t>
+  </si>
+  <si>
+    <t>DIRECCION_20181231</t>
   </si>
 </sst>
 </file>
@@ -905,6 +911,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1216,9 +1223,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G396"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3280,13 +3290,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>259</v>
@@ -3295,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3303,13 +3313,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>259</v>
@@ -3318,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3326,13 +3336,13 @@
         <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>81</v>
+        <v>280</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>259</v>
@@ -3341,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,13 +3359,13 @@
         <v>6</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>259</v>
@@ -3364,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3372,10 +3382,10 @@
         <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>11</v>
@@ -3395,13 +3405,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>58</v>
+        <v>281</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>259</v>
@@ -3410,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3418,10 +3428,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>16</v>
@@ -3441,10 +3451,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>16</v>
@@ -3464,13 +3474,13 @@
         <v>6</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>259</v>
@@ -3479,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3487,13 +3497,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>259</v>
@@ -3502,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3510,13 +3520,13 @@
         <v>6</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>259</v>
@@ -3525,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3533,10 +3543,10 @@
         <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>13</v>
@@ -3556,12 +3566,12 @@
         <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -3579,13 +3589,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>259</v>
@@ -3594,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3602,13 +3612,13 @@
         <v>6</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>259</v>
@@ -3617,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3625,13 +3635,13 @@
         <v>6</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>259</v>
@@ -3640,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3648,13 +3658,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>259</v>
@@ -3663,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3671,13 +3681,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>259</v>
@@ -3686,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3694,12 +3704,12 @@
         <v>6</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -3717,10 +3727,10 @@
         <v>6</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>20</v>
@@ -3740,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>16</v>
@@ -3763,13 +3773,13 @@
         <v>6</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>259</v>
@@ -3778,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3786,13 +3796,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>259</v>
@@ -3801,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3809,10 +3819,10 @@
         <v>6</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>20</v>
@@ -3832,10 +3842,10 @@
         <v>6</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>16</v>
@@ -3855,10 +3865,10 @@
         <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>20</v>
@@ -3878,13 +3888,13 @@
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>259</v>
@@ -3893,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3901,13 +3911,13 @@
         <v>6</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>259</v>
@@ -3916,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3924,10 +3934,10 @@
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>16</v>
@@ -3947,13 +3957,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>259</v>
@@ -3962,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3970,10 +3980,10 @@
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>16</v>
@@ -3993,13 +4003,13 @@
         <v>6</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>259</v>
@@ -4008,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4016,13 +4026,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>259</v>
@@ -4031,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4039,13 +4049,13 @@
         <v>6</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>20</v>
+        <v>97</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>259</v>
@@ -4054,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,10 +4075,10 @@
         <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>259</v>
@@ -4077,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4088,10 +4098,10 @@
         <v>98</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>259</v>
@@ -4100,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4108,10 +4118,10 @@
         <v>6</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>16</v>
@@ -4131,10 +4141,10 @@
         <v>6</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>16</v>
@@ -4154,10 +4164,10 @@
         <v>6</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>16</v>
@@ -4177,13 +4187,13 @@
         <v>6</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>259</v>
@@ -4192,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4200,13 +4210,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>259</v>
@@ -4215,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4223,13 +4233,13 @@
         <v>6</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>259</v>
@@ -4238,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4249,10 +4259,10 @@
         <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>259</v>
@@ -4261,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4272,10 +4282,10 @@
         <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>259</v>
@@ -4284,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4292,22 +4302,22 @@
         <v>6</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F134" s="6">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4315,12 +4325,12 @@
         <v>6</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E135" s="2" t="s">
@@ -4338,13 +4348,13 @@
         <v>6</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>259</v>
@@ -4353,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4361,13 +4371,13 @@
         <v>6</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>259</v>
@@ -4376,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4384,13 +4394,13 @@
         <v>6</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>259</v>
@@ -4399,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4407,13 +4417,13 @@
         <v>6</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>259</v>
@@ -4422,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4430,22 +4440,22 @@
         <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F140" s="6">
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4453,13 +4463,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>259</v>
@@ -4468,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4476,13 +4486,13 @@
         <v>6</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>259</v>
@@ -4491,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4499,13 +4509,13 @@
         <v>6</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>259</v>
@@ -4514,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4522,10 +4532,10 @@
         <v>6</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>16</v>
@@ -4545,7 +4555,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>21</v>
@@ -4568,7 +4578,7 @@
         <v>6</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>20</v>
@@ -4591,13 +4601,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>259</v>
@@ -4606,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,10 +4624,10 @@
         <v>6</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>16</v>
@@ -4637,13 +4647,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>259</v>
@@ -4652,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4660,13 +4670,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>259</v>
@@ -4675,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4683,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>259</v>
@@ -4698,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4706,13 +4716,13 @@
         <v>6</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>259</v>
@@ -4721,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4729,12 +4739,12 @@
         <v>6</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -4752,12 +4762,12 @@
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -4775,13 +4785,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>259</v>
@@ -4790,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4798,13 +4808,13 @@
         <v>6</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>259</v>
@@ -4813,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4821,13 +4831,13 @@
         <v>6</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>259</v>
@@ -4836,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,10 +4854,10 @@
         <v>6</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>16</v>
@@ -4867,13 +4877,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>259</v>
@@ -4882,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4890,13 +4900,13 @@
         <v>6</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>259</v>
@@ -4905,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4913,13 +4923,13 @@
         <v>6</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>259</v>
@@ -4928,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4936,13 +4946,13 @@
         <v>6</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>259</v>
@@ -4951,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4959,13 +4969,13 @@
         <v>6</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>259</v>
@@ -4974,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4982,12 +4992,12 @@
         <v>6</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -5005,13 +5015,13 @@
         <v>6</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>259</v>
@@ -5020,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5028,13 +5038,13 @@
         <v>6</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>259</v>
@@ -5043,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5051,13 +5061,13 @@
         <v>6</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>259</v>
@@ -5066,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5074,13 +5084,13 @@
         <v>6</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>259</v>
@@ -5089,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5097,13 +5107,13 @@
         <v>6</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>259</v>
@@ -5112,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5120,13 +5130,13 @@
         <v>6</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>259</v>
@@ -5135,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5143,10 +5153,10 @@
         <v>6</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>16</v>
@@ -5166,13 +5176,13 @@
         <v>6</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>259</v>
@@ -5181,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5189,13 +5199,13 @@
         <v>6</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>259</v>
@@ -5204,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5212,7 +5222,7 @@
         <v>6</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
@@ -5235,13 +5245,13 @@
         <v>6</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>259</v>
@@ -5250,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5258,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>20</v>
@@ -5281,7 +5291,7 @@
         <v>6</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>125</v>
@@ -5304,7 +5314,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>20</v>
@@ -5327,7 +5337,7 @@
         <v>6</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>125</v>
@@ -5350,7 +5360,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>20</v>
@@ -5373,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>125</v>
@@ -5396,7 +5406,7 @@
         <v>6</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>20</v>
@@ -5419,7 +5429,7 @@
         <v>6</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>125</v>
@@ -5442,10 +5452,10 @@
         <v>6</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>20</v>
@@ -5465,12 +5475,12 @@
         <v>6</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D185" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -5488,13 +5498,13 @@
         <v>6</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>259</v>
@@ -5503,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5511,13 +5521,13 @@
         <v>6</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>259</v>
@@ -5526,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5534,22 +5544,22 @@
         <v>6</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F188" s="6">
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5557,10 +5567,10 @@
         <v>6</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>16</v>
@@ -5580,13 +5590,13 @@
         <v>6</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>259</v>
@@ -5595,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5603,13 +5613,13 @@
         <v>6</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>259</v>
@@ -5618,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5626,13 +5636,13 @@
         <v>6</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>259</v>
@@ -5641,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5649,13 +5659,13 @@
         <v>6</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>259</v>
@@ -5664,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5672,22 +5682,22 @@
         <v>6</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D194" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F194" s="6">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5695,12 +5705,12 @@
         <v>6</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -5718,13 +5728,13 @@
         <v>6</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>259</v>
@@ -5733,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5741,13 +5751,13 @@
         <v>6</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>259</v>
@@ -5756,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5764,13 +5774,13 @@
         <v>6</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>259</v>
@@ -5779,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5787,13 +5797,13 @@
         <v>6</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>259</v>
@@ -5802,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5810,13 +5820,13 @@
         <v>6</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>259</v>
@@ -5825,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5833,13 +5843,13 @@
         <v>6</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>259</v>
@@ -5848,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5856,13 +5866,13 @@
         <v>6</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>259</v>
@@ -5871,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5879,12 +5889,12 @@
         <v>6</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D203" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -5902,13 +5912,13 @@
         <v>6</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>259</v>
@@ -5917,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5925,13 +5935,13 @@
         <v>6</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>259</v>
@@ -5940,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5948,10 +5958,10 @@
         <v>6</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>8</v>
@@ -5971,13 +5981,13 @@
         <v>6</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>16</v>
+        <v>141</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>259</v>
@@ -5986,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5994,10 +6004,10 @@
         <v>6</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>16</v>
@@ -6017,10 +6027,10 @@
         <v>6</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>16</v>
@@ -6040,13 +6050,13 @@
         <v>6</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>259</v>
@@ -6055,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6063,13 +6073,13 @@
         <v>6</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>259</v>
@@ -6078,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6086,13 +6096,13 @@
         <v>6</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>259</v>
@@ -6101,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6109,10 +6119,10 @@
         <v>6</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>16</v>
@@ -6132,13 +6142,13 @@
         <v>6</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>259</v>
@@ -6147,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6155,12 +6165,12 @@
         <v>6</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E215" s="2" t="s">
@@ -6178,13 +6188,13 @@
         <v>6</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>259</v>
@@ -6193,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6201,12 +6211,12 @@
         <v>6</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D217" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E217" s="2" t="s">
@@ -6224,12 +6234,12 @@
         <v>6</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D218" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E218" s="2" t="s">
@@ -6247,13 +6257,13 @@
         <v>6</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>259</v>
@@ -6262,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6270,22 +6280,22 @@
         <v>6</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F220" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6293,22 +6303,22 @@
         <v>6</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F221" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -6316,22 +6326,22 @@
         <v>6</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F222" s="6">
-        <v>9</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6339,13 +6349,13 @@
         <v>6</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>259</v>
@@ -6354,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6362,13 +6372,13 @@
         <v>6</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>259</v>
@@ -6377,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6385,13 +6395,13 @@
         <v>6</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>259</v>
@@ -6400,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6408,22 +6418,22 @@
         <v>6</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F226" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G226" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6431,22 +6441,22 @@
         <v>6</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F227" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G227" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6454,7 +6464,7 @@
         <v>6</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>58</v>
@@ -6466,9 +6476,9 @@
         <v>259</v>
       </c>
       <c r="F228" s="6">
-        <v>0</v>
-      </c>
-      <c r="G228" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6477,7 +6487,7 @@
         <v>6</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
@@ -6500,13 +6510,13 @@
         <v>6</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>259</v>
@@ -6515,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6523,13 +6533,13 @@
         <v>6</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>259</v>
@@ -6538,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6546,13 +6556,13 @@
         <v>6</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>259</v>
@@ -6561,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6569,10 +6579,10 @@
         <v>6</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>16</v>
@@ -6592,13 +6602,13 @@
         <v>6</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>259</v>
@@ -6607,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6615,13 +6625,13 @@
         <v>6</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>259</v>
@@ -6630,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6638,13 +6648,13 @@
         <v>6</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>259</v>
@@ -6653,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6661,13 +6671,13 @@
         <v>6</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>259</v>
@@ -6676,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -6684,13 +6694,13 @@
         <v>6</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>259</v>
@@ -6699,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6707,13 +6717,13 @@
         <v>6</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>259</v>
@@ -6722,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6730,13 +6740,13 @@
         <v>6</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>259</v>
@@ -6745,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6753,13 +6763,13 @@
         <v>6</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>259</v>
@@ -6768,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6776,13 +6786,13 @@
         <v>6</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>259</v>
@@ -6791,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6799,13 +6809,13 @@
         <v>6</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C243" t="s">
-        <v>166</v>
-      </c>
-      <c r="D243" t="s">
-        <v>16</v>
+        <v>159</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>259</v>
@@ -6814,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6822,13 +6832,13 @@
         <v>6</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>259</v>
@@ -6837,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6845,13 +6855,13 @@
         <v>6</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>259</v>
@@ -6860,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6868,10 +6878,10 @@
         <v>6</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>16</v>
@@ -6891,13 +6901,13 @@
         <v>6</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>259</v>
@@ -6906,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6914,10 +6924,10 @@
         <v>6</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>16</v>
@@ -6937,12 +6947,12 @@
         <v>6</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D249" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C249" t="s">
+        <v>166</v>
+      </c>
+      <c r="D249" t="s">
         <v>16</v>
       </c>
       <c r="E249" s="2" t="s">
@@ -6960,10 +6970,10 @@
         <v>6</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>16</v>
@@ -6983,13 +6993,13 @@
         <v>6</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>259</v>
@@ -6998,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7006,7 +7016,7 @@
         <v>6</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>170</v>
@@ -7029,13 +7039,13 @@
         <v>6</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>259</v>
@@ -7044,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7052,10 +7062,10 @@
         <v>6</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>16</v>
@@ -7075,13 +7085,13 @@
         <v>6</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>259</v>
@@ -7090,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7098,10 +7108,10 @@
         <v>6</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>16</v>
@@ -7121,13 +7131,13 @@
         <v>6</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>259</v>
@@ -7136,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7144,10 +7154,10 @@
         <v>6</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>16</v>
@@ -7167,13 +7177,13 @@
         <v>6</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>259</v>
@@ -7182,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7190,10 +7200,10 @@
         <v>6</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>16</v>
@@ -7213,13 +7223,13 @@
         <v>6</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>259</v>
@@ -7228,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7236,10 +7246,10 @@
         <v>6</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>16</v>
@@ -7259,10 +7269,10 @@
         <v>6</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>16</v>
@@ -7282,10 +7292,10 @@
         <v>6</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>16</v>
@@ -7305,13 +7315,13 @@
         <v>6</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>259</v>
@@ -7320,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7328,13 +7338,13 @@
         <v>6</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>259</v>
@@ -7343,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7354,10 +7364,10 @@
         <v>177</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>259</v>
@@ -7366,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7374,13 +7384,13 @@
         <v>6</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>259</v>
@@ -7389,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7397,10 +7407,10 @@
         <v>6</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>16</v>
@@ -7420,10 +7430,10 @@
         <v>6</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>16</v>
@@ -7443,13 +7453,13 @@
         <v>6</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>259</v>
@@ -7458,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7466,13 +7476,13 @@
         <v>6</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>259</v>
@@ -7481,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7489,10 +7499,10 @@
         <v>6</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>13</v>
@@ -7504,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7512,10 +7522,10 @@
         <v>6</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>20</v>
@@ -7535,10 +7545,10 @@
         <v>6</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>16</v>
@@ -7558,13 +7568,13 @@
         <v>6</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>259</v>
@@ -7573,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7581,13 +7591,13 @@
         <v>6</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>259</v>
@@ -7596,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7604,13 +7614,13 @@
         <v>6</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>259</v>
@@ -7619,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7627,13 +7637,13 @@
         <v>6</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>259</v>
@@ -7642,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7650,13 +7660,13 @@
         <v>6</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>259</v>
@@ -7665,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7673,10 +7683,10 @@
         <v>6</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>16</v>
@@ -7696,13 +7706,13 @@
         <v>6</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>259</v>
@@ -7711,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -7719,13 +7729,13 @@
         <v>6</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>259</v>
@@ -7734,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,7 +7755,7 @@
         <v>186</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>13</v>
@@ -7757,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7768,10 +7778,10 @@
         <v>186</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>259</v>
@@ -7780,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -7791,10 +7801,10 @@
         <v>186</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>259</v>
@@ -7803,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7814,10 +7824,10 @@
         <v>186</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>259</v>
@@ -7826,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -7837,7 +7847,7 @@
         <v>186</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>16</v>
@@ -7860,10 +7870,10 @@
         <v>186</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>259</v>
@@ -7872,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7883,10 +7893,10 @@
         <v>186</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>259</v>
@@ -7895,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7903,13 +7913,13 @@
         <v>6</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>259</v>
@@ -7918,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -7926,13 +7936,13 @@
         <v>6</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>259</v>
@@ -7941,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -7949,13 +7959,13 @@
         <v>6</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>259</v>
@@ -7964,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -7972,10 +7982,10 @@
         <v>6</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>16</v>
@@ -7995,13 +8005,13 @@
         <v>6</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>259</v>
@@ -8010,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -8018,13 +8028,13 @@
         <v>6</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>259</v>
@@ -8033,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -8041,10 +8051,10 @@
         <v>6</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>16</v>
@@ -8064,10 +8074,10 @@
         <v>6</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>20</v>
@@ -8087,13 +8097,13 @@
         <v>6</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>259</v>
@@ -8102,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -8110,13 +8120,13 @@
         <v>6</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>259</v>
@@ -8125,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -8133,13 +8143,13 @@
         <v>6</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>259</v>
@@ -8148,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -8156,10 +8166,10 @@
         <v>6</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>16</v>
@@ -8179,13 +8189,13 @@
         <v>6</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>259</v>
@@ -8194,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -8202,13 +8212,13 @@
         <v>6</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>259</v>
@@ -8217,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -8225,13 +8235,13 @@
         <v>6</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>259</v>
@@ -8240,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -8248,13 +8258,13 @@
         <v>6</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>259</v>
@@ -8263,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -8271,7 +8281,7 @@
         <v>6</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>65</v>
@@ -8294,10 +8304,10 @@
         <v>6</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>16</v>
@@ -8317,10 +8327,10 @@
         <v>6</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>20</v>
@@ -8340,10 +8350,10 @@
         <v>6</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>13</v>
@@ -8363,13 +8373,13 @@
         <v>6</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>259</v>
@@ -8378,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -8386,10 +8396,10 @@
         <v>6</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>16</v>
@@ -8409,13 +8419,13 @@
         <v>6</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>259</v>
@@ -8424,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -8432,13 +8442,13 @@
         <v>6</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>259</v>
@@ -8447,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -8455,13 +8465,13 @@
         <v>6</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>259</v>
@@ -8470,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -8478,7 +8488,7 @@
         <v>6</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
@@ -8501,7 +8511,7 @@
         <v>6</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>10</v>
@@ -8524,13 +8534,13 @@
         <v>6</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>259</v>
@@ -8539,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -8547,13 +8557,13 @@
         <v>6</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>259</v>
@@ -8562,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -8570,13 +8580,13 @@
         <v>6</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>259</v>
@@ -8585,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -8593,13 +8603,13 @@
         <v>6</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>259</v>
@@ -8608,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -8616,13 +8626,13 @@
         <v>6</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>259</v>
@@ -8631,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="G322" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -8639,13 +8649,13 @@
         <v>6</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>259</v>
@@ -8654,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -8662,13 +8672,13 @@
         <v>6</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>259</v>
@@ -8677,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -8685,13 +8695,13 @@
         <v>6</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>259</v>
@@ -8700,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8708,13 +8718,13 @@
         <v>6</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>259</v>
@@ -8723,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -8731,13 +8741,13 @@
         <v>6</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>259</v>
@@ -8746,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -8754,13 +8764,13 @@
         <v>6</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>259</v>
@@ -8769,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -8777,10 +8787,10 @@
         <v>6</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>20</v>
@@ -8800,7 +8810,7 @@
         <v>6</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>209</v>
@@ -8823,7 +8833,7 @@
         <v>6</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>209</v>
@@ -8846,13 +8856,13 @@
         <v>6</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>259</v>
@@ -8861,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -8869,13 +8879,13 @@
         <v>6</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>259</v>
@@ -8884,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -8892,13 +8902,13 @@
         <v>6</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>259</v>
@@ -8907,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -8915,10 +8925,10 @@
         <v>6</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>20</v>
@@ -8938,7 +8948,7 @@
         <v>6</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>209</v>
@@ -8961,10 +8971,10 @@
         <v>6</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>16</v>
@@ -8984,13 +8994,13 @@
         <v>6</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>259</v>
@@ -8999,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -9007,13 +9017,13 @@
         <v>6</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>259</v>
@@ -9022,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -9030,13 +9040,13 @@
         <v>6</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>259</v>
@@ -9045,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -9053,13 +9063,13 @@
         <v>6</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>259</v>
@@ -9068,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -9076,10 +9086,10 @@
         <v>6</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>16</v>
@@ -9102,7 +9112,7 @@
         <v>218</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>16</v>
@@ -9122,13 +9132,13 @@
         <v>6</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>259</v>
@@ -9137,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9145,10 +9155,10 @@
         <v>6</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>16</v>
@@ -9168,13 +9178,13 @@
         <v>6</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>259</v>
@@ -9183,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -9191,10 +9201,10 @@
         <v>6</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>16</v>
@@ -9214,10 +9224,10 @@
         <v>6</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>16</v>
@@ -9237,10 +9247,10 @@
         <v>6</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>16</v>
@@ -9260,13 +9270,13 @@
         <v>6</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>259</v>
@@ -9275,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="G350" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9283,10 +9293,10 @@
         <v>6</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>16</v>
@@ -9306,13 +9316,13 @@
         <v>6</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>259</v>
@@ -9321,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -9329,13 +9339,13 @@
         <v>6</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>259</v>
@@ -9344,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -9352,13 +9362,13 @@
         <v>6</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>259</v>
@@ -9367,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -9375,7 +9385,7 @@
         <v>6</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>224</v>
@@ -9398,13 +9408,13 @@
         <v>6</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>259</v>
@@ -9413,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -9421,13 +9431,13 @@
         <v>6</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>259</v>
@@ -9436,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -9444,7 +9454,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>229</v>
@@ -9467,13 +9477,13 @@
         <v>6</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>259</v>
@@ -9482,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -9490,13 +9500,13 @@
         <v>6</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>259</v>
@@ -9505,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -9513,13 +9523,13 @@
         <v>6</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>259</v>
@@ -9528,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="G361" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -9536,13 +9546,13 @@
         <v>6</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>259</v>
@@ -9551,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -9559,10 +9569,10 @@
         <v>6</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>20</v>
@@ -9582,10 +9592,10 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>20</v>
@@ -9605,13 +9615,13 @@
         <v>6</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>259</v>
@@ -9620,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -9628,13 +9638,13 @@
         <v>6</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>259</v>
@@ -9643,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -9651,13 +9661,13 @@
         <v>6</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C367" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>259</v>
@@ -9666,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -9674,13 +9684,13 @@
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>259</v>
@@ -9689,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -9697,7 +9707,7 @@
         <v>6</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>20</v>
@@ -9720,13 +9730,13 @@
         <v>6</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>259</v>
@@ -9735,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="G370" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -9743,13 +9753,13 @@
         <v>6</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>259</v>
@@ -9758,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="G371" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -9766,13 +9776,13 @@
         <v>6</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>259</v>
@@ -9781,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G372" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -9789,13 +9799,13 @@
         <v>6</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>45</v>
+        <v>238</v>
+      </c>
+      <c r="C373" t="s">
+        <v>239</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>259</v>
@@ -9804,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="G373" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -9812,13 +9822,13 @@
         <v>6</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>259</v>
@@ -9827,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="G374" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -9835,7 +9845,7 @@
         <v>6</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>20</v>
@@ -9858,13 +9868,13 @@
         <v>6</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>259</v>
@@ -9873,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -9881,10 +9891,10 @@
         <v>6</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>16</v>
@@ -9904,13 +9914,13 @@
         <v>6</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>259</v>
@@ -9919,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -9927,13 +9937,13 @@
         <v>6</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>259</v>
@@ -9942,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -9950,7 +9960,7 @@
         <v>6</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>21</v>
@@ -9973,7 +9983,7 @@
         <v>6</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>20</v>
@@ -9996,13 +10006,13 @@
         <v>6</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>259</v>
@@ -10011,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -10019,10 +10029,10 @@
         <v>6</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>16</v>
@@ -10042,13 +10052,13 @@
         <v>6</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>259</v>
@@ -10057,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="G384" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -10065,13 +10075,13 @@
         <v>6</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>259</v>
@@ -10080,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -10088,10 +10098,10 @@
         <v>6</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>16</v>
@@ -10111,13 +10121,13 @@
         <v>6</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>259</v>
@@ -10126,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -10134,13 +10144,13 @@
         <v>6</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>259</v>
@@ -10149,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -10157,13 +10167,13 @@
         <v>6</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>259</v>
@@ -10172,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -10180,13 +10190,13 @@
         <v>6</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>259</v>
@@ -10195,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -10206,10 +10216,10 @@
         <v>248</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>259</v>
@@ -10218,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -10229,10 +10239,10 @@
         <v>248</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>259</v>
@@ -10241,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -10252,10 +10262,10 @@
         <v>248</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>259</v>
@@ -10264,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -10272,13 +10282,13 @@
         <v>6</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>259</v>
@@ -10287,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -10295,7 +10305,7 @@
         <v>6</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>251</v>
@@ -10318,29 +10328,167 @@
         <v>6</v>
       </c>
       <c r="B396" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F396" s="6">
+        <v>0</v>
+      </c>
+      <c r="G396" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F397" s="6">
+        <v>0</v>
+      </c>
+      <c r="G397" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F398" s="6">
+        <v>0</v>
+      </c>
+      <c r="G398" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F399" s="6">
+        <v>0</v>
+      </c>
+      <c r="G399" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F400" s="6">
+        <v>0</v>
+      </c>
+      <c r="G400" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F401" s="6">
+        <v>0</v>
+      </c>
+      <c r="G401" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="C402" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D396" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E396" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F396" s="6">
-        <v>0</v>
-      </c>
-      <c r="G396" t="s">
+      <c r="D402" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F402" s="6">
+        <v>0</v>
+      </c>
+      <c r="G402" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G396" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F396">
-      <sortCondition ref="A2:A396"/>
-      <sortCondition ref="B2:B396"/>
+  <autoFilter ref="A1:G402" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F402">
+      <sortCondition ref="A2:A402"/>
+      <sortCondition ref="B2:B402"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
